--- a/biology/Botanique/Tabebuia/Tabebuia.xlsx
+++ b/biology/Botanique/Tabebuia/Tabebuia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabebuia est un genre végétal qui comprend une centaine d'espèces d'arbres natifs des régions tropicales d'Amérique et qui s'étendent depuis le Mexique jusqu'au nord de l'Argentine.
 Il est connu en Guyane sous le nom d'ébène, au Paraguay sous le nom de lapacho et en langue guarani sous celui de tajÿ. Il existe des arbres à fleurs jaunes, blanches et roses.
-Il est connu aussi sous le nom Trumpet tree[1].
+Il est connu aussi sous le nom Trumpet tree.
 Certaines espèces donnent des bois précieux connus sous le nom d'ipé.
-Ce genre initialement polyphyllétique a été scindé en plusieurs genres distincts en 2007 : Tabebuia, Handroanthus et Roseodendron[2]
+Ce genre initialement polyphyllétique a été scindé en plusieurs genres distincts en 2007 : Tabebuia, Handroanthus et Roseodendron
 </t>
         </is>
       </c>
